--- a/pickpockethome.xlsx
+++ b/pickpockethome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="468" windowWidth="19812" windowHeight="8820" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="468" windowWidth="19812" windowHeight="8820" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Sheet7!$A$1:$J$21</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
   <si>
     <t>S</t>
   </si>
@@ -310,6 +316,120 @@
   </si>
   <si>
     <t>Camera</t>
+  </si>
+  <si>
+    <t>start with 3 piles of 4</t>
+  </si>
+  <si>
+    <t>Player 1 starts</t>
+  </si>
+  <si>
+    <t>players continue to press their luck until they all leave</t>
+  </si>
+  <si>
+    <t>if three suspicion are shown, all loot is discarded, and shuffle the suspicion back into marks.</t>
+  </si>
+  <si>
+    <t>ensure 12 cards for marks, and create 3 new piles</t>
+  </si>
+  <si>
+    <t>Then add 1 new card to the top of each stack</t>
+  </si>
+  <si>
+    <t>if a suspicion is drawn, the suspicion level of your meeple goes up if you are still in</t>
+  </si>
+  <si>
+    <t>choose to grab-and-go or press-on</t>
+  </si>
+  <si>
+    <t>if lifting, take one card and place in center.</t>
+  </si>
+  <si>
+    <t>Press-On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if you are the only one left and you press on, you need to draw successful, then you can take </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cards equal to the number of suspicion in play + 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take one card and put it in your stash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Your turn is done, wait until all players are done, then hit the pawn shop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  You can only play cards on other players if you are still Pressing-On</t>
+  </si>
+  <si>
+    <t>If you don't draw successful, you can Grab-&amp;-Go, or Press-On.</t>
+  </si>
+  <si>
+    <t>Grab-&amp;-Go</t>
+  </si>
+  <si>
+    <t>Pawn Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash in cards for money</t>
+  </si>
+  <si>
+    <t>Police Presence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Once any player reaches 5 suspicion, the police presence moves up 1 level.</t>
+  </si>
+  <si>
+    <t>Nobody can run until there is one Suspicion</t>
+  </si>
+  <si>
+    <t>All is lost when there is Suspicion = number of players +1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Keep one card as VP</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>Player 3</t>
+  </si>
+  <si>
+    <t>Player 4</t>
+  </si>
+  <si>
+    <t>Police Bribe</t>
+  </si>
+  <si>
+    <t>start with 3 piles of 5</t>
+  </si>
+  <si>
+    <t>Must continue to lift until one suspicion is shown</t>
+  </si>
+  <si>
+    <t>draw 5 new cards for each round</t>
+  </si>
+  <si>
+    <t>shuffle and make 3 piles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Buy a trap with cash or credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When any suspicion is drawn if it has police pressence and the location matches your location, you must pay a bribe of one card</t>
+  </si>
+  <si>
+    <t>All is lost when there is Suspicion = 3</t>
   </si>
 </sst>
 </file>
@@ -366,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -402,12 +522,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -448,6 +579,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1488,7 +1630,7 @@
       </c>
       <c r="W3" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1563,7 +1705,7 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1638,7 +1780,7 @@
       </c>
       <c r="W5" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1713,7 +1855,7 @@
       </c>
       <c r="W6" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1788,7 +1930,7 @@
       </c>
       <c r="W7" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -3590,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3602,7 +3744,7 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>94</v>
       </c>
@@ -3620,8 +3762,11 @@
       <c r="G1" s="23">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>19</v>
       </c>
@@ -3635,10 +3780,13 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
-        <f t="shared" ref="A3:A10" si="0">+A4+1</f>
+        <f t="shared" ref="A3:A8" si="0">+A4+1</f>
         <v>13</v>
       </c>
       <c r="B3" s="22">
@@ -3657,8 +3805,11 @@
       <c r="G3" s="22">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3679,8 +3830,11 @@
       <c r="G4" s="22">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3702,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3723,8 +3877,11 @@
         <v>7</v>
       </c>
       <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3745,8 +3902,11 @@
         <v>8</v>
       </c>
       <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3767,8 +3927,11 @@
         <v>9</v>
       </c>
       <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <f>+A10+1</f>
         <v>7</v>
@@ -3789,8 +3952,11 @@
         <v>10</v>
       </c>
       <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <f>+A11+1</f>
         <v>6</v>
@@ -3810,7 +3976,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>5</v>
       </c>
@@ -3828,23 +3994,347 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>SUM(A2:A11)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>+A12/4</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16">
         <f>12*8</f>
         <v>96</v>
+      </c>
+      <c r="K16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
+        <v>4</v>
+      </c>
+      <c r="H18" s="23">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>24</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="K19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="22">
+        <f t="shared" ref="A20:A25" si="1">+A21+1</f>
+        <v>13</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <v>3</v>
+      </c>
+      <c r="G20" s="22">
+        <v>5</v>
+      </c>
+      <c r="H20" s="22">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>3</v>
+      </c>
+      <c r="G21" s="22">
+        <v>5</v>
+      </c>
+      <c r="H21" s="22">
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="22">
+        <v>6</v>
+      </c>
+      <c r="H22" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="22">
+        <v>1</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22">
+        <v>5</v>
+      </c>
+      <c r="G23" s="22">
+        <v>7</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>8</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="K24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="22">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="22">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22">
+        <v>6</v>
+      </c>
+      <c r="G25" s="22">
+        <v>9</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="K25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <f>+A27+1</f>
+        <v>7</v>
+      </c>
+      <c r="B26" s="22">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="22">
+        <v>2</v>
+      </c>
+      <c r="E26" s="22">
+        <v>4</v>
+      </c>
+      <c r="F26" s="22">
+        <v>7</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="K26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
+        <f>+A28+1</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="25">
+        <v>1</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2</v>
+      </c>
+      <c r="E27" s="22">
+        <v>5</v>
+      </c>
+      <c r="F27" s="22">
+        <v>9</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>5</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2</v>
+      </c>
+      <c r="E28" s="22">
+        <v>6</v>
+      </c>
+      <c r="F28" s="22">
+        <v>11</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="K28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <f>SUM(A19:A28)</f>
+        <v>105</v>
+      </c>
+      <c r="K29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3854,4 +4344,758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23">
+        <v>1</v>
+      </c>
+      <c r="E1" s="23">
+        <v>2</v>
+      </c>
+      <c r="F1" s="23">
+        <v>3</v>
+      </c>
+      <c r="G1" s="23">
+        <v>4</v>
+      </c>
+      <c r="H1" s="23">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>24</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <f t="shared" ref="A3:A8" si="0">+A4+1</f>
+        <v>13</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>5</v>
+      </c>
+      <c r="H3" s="22">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+      <c r="G4" s="22">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>4</v>
+      </c>
+      <c r="G5" s="22">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22">
+        <v>7</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>5</v>
+      </c>
+      <c r="G7" s="22">
+        <v>8</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>9</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="L8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <f>+A10+1</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>7</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <f>+A11+1</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>5</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="22">
+        <v>2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>6</v>
+      </c>
+      <c r="F11" s="22">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="22">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="22">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="22">
+        <v>5</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="L29" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="120" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23">
+        <v>1</v>
+      </c>
+      <c r="E1" s="23">
+        <v>2</v>
+      </c>
+      <c r="F1" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <f t="shared" ref="A3:A8" si="0">+A4+1</f>
+        <v>11</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <f>+A10+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>4</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>6</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <f>SUM(A2:A10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="22">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="22">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="22">
+        <v>3</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="22">
+        <v>4</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="22">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pickpockethome.xlsx
+++ b/pickpockethome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="468" windowWidth="19812" windowHeight="8820" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="468" windowWidth="19812" windowHeight="8820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -15,17 +15,18 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Sheet7!$A$1:$J$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Sheet8!$E$14:$I$21</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="175">
   <si>
     <t>S</t>
   </si>
@@ -430,13 +431,133 @@
   </si>
   <si>
     <t>All is lost when there is Suspicion = 3</t>
+  </si>
+  <si>
+    <t>FINGERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round </t>
+  </si>
+  <si>
+    <t>3 suspicion</t>
+  </si>
+  <si>
+    <t>12 other</t>
+  </si>
+  <si>
+    <t>add 10</t>
+  </si>
+  <si>
+    <t>Start with 3 non cop suspicion and 12 cards.</t>
+  </si>
+  <si>
+    <t>Make 3 piles of 5</t>
+  </si>
+  <si>
+    <t>Each player gets one cash, one random trap and one attack glove.</t>
+  </si>
+  <si>
+    <t>Select a first player.</t>
+  </si>
+  <si>
+    <t>If no suspicion is out, you must Lift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lift an item, place it in the center.</t>
+  </si>
+  <si>
+    <t>Draw 10 new cards for each round</t>
+  </si>
+  <si>
+    <t>Shuffle and make 3 piles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If more than enough items for all to pick again, last player picks first, then counter clockwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Player to initiated all to agree on their turn chooses last.  All pick one item clockwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If more than enough items for all to pick again, first player picks first, then clockwise.</t>
+  </si>
+  <si>
+    <t>Even Steven (max three each if possible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Your turn is done, wait until all players are done, then hit the pawn shop with the team.</t>
+  </si>
+  <si>
+    <t>Once you are out, nobody can steal from you.</t>
+  </si>
+  <si>
+    <t>Main Rules:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Either press on, you need to draw successful, then you can take   cards equal to the number of suspicion in play + 1.</t>
+  </si>
+  <si>
+    <t>If you are the only one left:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you don't draw successful, you can Grab-&amp;-Go, or Press-On.</t>
+  </si>
+  <si>
+    <t>All is lost from current group heist when there is Suspicion = 3</t>
+  </si>
+  <si>
+    <t>Your Action:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Negotiate Even Steven, Grab-and-go, Press-on, Steal or play one Skill card</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Place your glove token into the reserve and steal from an opponent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you get an item, put it in your stash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If you get a trap, one of your fingers gets broken.</t>
+  </si>
+  <si>
+    <t>Skill Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Follow the directions on the Skill Card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash in cards sets for money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Buy a trap with cash.  If not unique, discard for $1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Heal a wound with a Credit Card item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  When a suspicion is drawn with police pressence and his location &gt;= your location, you must pay a bribe of one card or he breaks your finger.</t>
+  </si>
+  <si>
+    <t>Players continue to press their luck with an action until they all leave</t>
+  </si>
+  <si>
+    <t>If three suspicion are shown, all loot is discarded, and shuffle the suspicion back into marks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If a suspicion is drawn, the suspicion level of ALL meeples goes up if you are still in.  If this occurs when on bottom of Suspicion chart, move back to the top and take one skill card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take one card and put it in your stash.  Take one attack glove if available.  If there are any cops in play, one follows you and gets discarded.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,8 +580,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Impact"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="51"/>
+      <color theme="1"/>
+      <name val="MV Boli"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,8 +617,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -533,12 +671,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -590,6 +967,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,6 +1007,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613568</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="2964180"/>
+          <a:ext cx="621188" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>401450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219201" y="3390900"/>
+          <a:ext cx="640080" cy="378590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5222</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>613473</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>402984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1224422" y="3815220"/>
+          <a:ext cx="608251" cy="374904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10441</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>632233</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>382694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1229641" y="4237345"/>
+          <a:ext cx="621792" cy="351589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604046</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242060" y="2598420"/>
+          <a:ext cx="581186" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1630,7 +2259,7 @@
       </c>
       <c r="W3" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1705,7 +2334,7 @@
       </c>
       <c r="W4" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1780,7 +2409,7 @@
       </c>
       <c r="W5" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1855,7 +2484,7 @@
       </c>
       <c r="W6" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1930,7 +2559,7 @@
       </c>
       <c r="W7" s="9">
         <f ca="1">ROUND(RAND()*(26-3) + 3,0)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -4350,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4824,278 +5453,772 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="C1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23">
+        <v>1</v>
+      </c>
+      <c r="G1" s="23">
+        <v>2</v>
+      </c>
+      <c r="H1" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="22">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C8" si="0">+C4+1</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>2</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4</v>
+      </c>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="22">
+        <f>+C10+1</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="22">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>6</v>
+      </c>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="24">
+        <f>SUM(C2:C10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="3:9" ht="69" thickBot="1" x14ac:dyDescent="1.4">
+      <c r="E14" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="41"/>
+      <c r="F16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="3:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="35">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="32">
+        <v>2</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="3:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="30">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="3:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="31">
+        <v>4</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="190" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23">
+        <v>1</v>
+      </c>
       <c r="D1" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="23">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
-        <v>20</v>
-      </c>
-      <c r="B2" s="22">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>95</v>
       </c>
+      <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="23"/>
+      <c r="J2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
-        <f t="shared" ref="A3:A8" si="0">+A4+1</f>
-        <v>11</v>
-      </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22" t="s">
+        <f t="shared" ref="A3:A5" si="0">+A4+1</f>
+        <v>12</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="J3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>89</v>
       </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
       <c r="D4" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
         <v>9</v>
       </c>
-      <c r="B5" s="22">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="B6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>8</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>5</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="J7" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>5</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="J8" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="22">
+        <v>2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>6</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="J9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>9</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="J10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>4</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="22">
+        <v>3</v>
+      </c>
+      <c r="D11" s="22">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="J11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>SUM(A2:A11)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <f t="shared" si="0"/>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2</v>
-      </c>
-      <c r="F6" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>2</v>
-      </c>
-      <c r="F7" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="22">
-        <v>4</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <f>+A10+1</f>
-        <v>5</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>4</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="22">
-        <v>2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>6</v>
-      </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <f>SUM(A2:A10)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="22">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="22">
-        <v>2</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="22">
-        <v>3</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="22">
-        <v>4</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="22">
-        <v>5</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f>SUM(F13:F21)</f>
+        <v>85</v>
+      </c>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J24" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J34" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J37" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J38" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J39" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J41" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J46" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49" s="49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J50" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="125" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>